--- a/タスクリスト.xlsx
+++ b/タスクリスト.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -212,6 +208,14 @@
     <rPh sb="5" eb="6">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -355,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +404,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,7 +697,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -736,7 +743,7 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -751,24 +758,26 @@
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="15"/>
+      <c r="E4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="16"/>
       <c r="G4" s="7">
         <v>45586</v>
       </c>
@@ -788,7 +797,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -797,10 +806,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -811,12 +820,12 @@
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -839,7 +848,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -848,10 +857,10 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -864,13 +873,13 @@
     </row>
     <row r="10" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7">
         <v>45586</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
         <v>45586</v>
@@ -909,17 +918,17 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>15</v>
@@ -928,13 +937,13 @@
         <v>16</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>

--- a/タスクリスト.xlsx
+++ b/タスクリスト.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -224,6 +225,43 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(川﨑)</t>
+    <rPh sb="1" eb="3">
+      <t>カワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -359,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +451,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -794,12 +835,16 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
@@ -822,8 +867,8 @@
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>25</v>
+      <c r="B7" s="17">
+        <v>45597</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="8"/>
@@ -890,71 +935,71 @@
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="1" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="4" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7">
         <v>45586</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -965,4 +1010,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/タスクリスト.xlsx
+++ b/タスクリスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
@@ -258,10 +258,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未定</t>
+    <t>爆発</t>
     <rPh sb="0" eb="2">
-      <t>ミテイ</t>
-    </rPh>
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(△)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -397,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,13 +477,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -749,7 +792,7 @@
     <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -762,7 +805,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -782,12 +825,17 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -805,50 +853,56 @@
       <c r="G3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="7">
         <v>45586</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
@@ -863,14 +917,14 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>45597</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -878,7 +932,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -899,7 +953,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>26</v>
@@ -916,7 +970,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -935,71 +989,78 @@
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
+    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="1" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="4" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
+      <c r="I13" s="4"/>
+      <c r="J13" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7">
         <v>45586</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1016,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1036,7 +1097,7 @@
     </row>
     <row r="3" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9"/>
     </row>
@@ -1045,23 +1106,25 @@
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="2"/>
